--- a/biology/Microbiologie/Rhizopoda/Rhizopoda.xlsx
+++ b/biology/Microbiologie/Rhizopoda/Rhizopoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rhizopodes (Rhizopoda) (du grec ῥΐζω / rḯzo, racine, et ποδ / pod, pied) ou amiboïdes constituent un petit groupe (200 espèces) d’organismes vivants unicellulaires hétérotrophes.
 La monophylie du groupe n’est pas certaine. Les membres de celui-ci étaient autrefois rattachés à d’autres eucaryotes, comme les archéamibes (qui ont été rapprochées des mycétozoaires : Mycetozoa), et les amibes flagellées (constituant aujourd’hui le groupe monophylétique des percolozoaires). Peu de caractéristiques permettent de définir ce groupe essentiellement construit sur des bases moléculaires.
@@ -515,7 +527,9 @@
           <t>Caractéristiques des Rhizopodes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rhizopodes sont connus pour leur mobilité et leur flexibilité. Ils possèdent tous les organites des cellules eucaryotes. Néanmoins, et contrairement à la plupart des cellules eucaryotes, les rhizopodes ne recourent pas aux microtubules pour leur déplacement. Leur système "locomoteur" repose essentiellement sur des filaments d'actine qui constituent à peu près 40 % de leur cytosquelette. Ces filaments d'actine forment un réseau très étroit avec les filaments intermédiaires. Les rhizopodes se déplacent grâce à des pseudopodes.
 Quelques amiboïdes sont capsulés mais ça reste assez rare. Ils possèdent tous une membrane cytoplasmique très flexible et très riche en pseudopodes.
@@ -550,7 +564,9 @@
           <t>Liste non exhaustive des espèces de rhizopodes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Polychaos dubium
